--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/206519.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/206519.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="3" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="3" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="3" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1478,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="3" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
@@ -1756,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1865,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="3" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>0</v>
@@ -1998,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="3" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -2164,37 +2164,37 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="3" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>0</v>
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
@@ -2297,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="2" t="n">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="3" t="inlineStr">
         <is>
@@ -2349,10 +2349,10 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2379,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2424,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="3" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="2" t="n">
         <v>0</v>
@@ -2581,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="3" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2639,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2663,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2708,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="3" t="inlineStr">
         <is>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
@@ -2778,13 +2778,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -2796,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2" t="n">
         <v>0</v>
@@ -2817,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="2" t="n">
         <v>0</v>
@@ -2841,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="3" t="inlineStr">
         <is>
@@ -2887,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -2905,16 +2905,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2923,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2944,16 +2944,16 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -2962,19 +2962,19 @@
         <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="3" t="inlineStr">
         <is>
@@ -3014,16 +3014,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>1</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="AB20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="2" t="n">
         <v>0</v>
@@ -3101,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="3" t="inlineStr">
         <is>
@@ -3135,22 +3135,22 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -3183,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -3204,16 +3204,16 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="inlineStr">
         <is>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>1</v>
@@ -3298,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2" t="n">
         <v>0</v>
@@ -3334,16 +3334,16 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="2" t="n">
         <v>0</v>
@@ -3361,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="3" t="inlineStr">
         <is>
@@ -3395,22 +3395,22 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -3425,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3443,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3461,19 +3461,19 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -3482,19 +3482,19 @@
         <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="3" t="inlineStr">
         <is>
@@ -3534,16 +3534,16 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>1</v>
@@ -3558,13 +3558,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
@@ -3576,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2" t="n">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2" t="n">
         <v>0</v>
@@ -3621,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="3" t="inlineStr">
         <is>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3721,16 +3721,16 @@
         <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>1</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="3" t="inlineStr">
         <is>
@@ -3788,22 +3788,22 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>1</v>
@@ -3818,13 +3818,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -3836,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2" t="n">
         <v>0</v>
@@ -3854,16 +3854,16 @@
         <v>1</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="3" t="inlineStr">
         <is>
@@ -3909,28 +3909,28 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3963,13 +3963,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3984,13 +3984,13 @@
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -4008,13 +4008,13 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK27" t="n">
         <v>1</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="3" t="inlineStr">
         <is>
@@ -4048,22 +4048,22 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>1</v>
@@ -4078,13 +4078,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -4096,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="2" t="n">
         <v>0</v>
@@ -4114,16 +4114,16 @@
         <v>1</v>
       </c>
       <c r="AA28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2" t="n">
         <v>0</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="3" t="inlineStr">
         <is>
@@ -4175,22 +4175,22 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -4205,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4223,13 +4223,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -4238,19 +4238,19 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -4268,13 +4268,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK29" t="n">
         <v>1</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="3" t="inlineStr">
         <is>
@@ -4308,22 +4308,22 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>1</v>
@@ -4335,16 +4335,16 @@
         <v>0</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -4356,16 +4356,16 @@
         <v>0</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="2" t="n">
         <v>0</v>
@@ -4374,16 +4374,16 @@
         <v>1</v>
       </c>
       <c r="AA30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
@@ -4401,13 +4401,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="3" t="inlineStr">
         <is>
@@ -4441,16 +4441,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -4459,19 +4459,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4483,16 +4483,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -4501,19 +4501,19 @@
         <v>1</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -4528,13 +4528,13 @@
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK31" t="n">
         <v>1</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="3" t="inlineStr">
         <is>
@@ -4565,25 +4565,25 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>1</v>
@@ -4595,16 +4595,16 @@
         <v>0</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -4616,16 +4616,16 @@
         <v>0</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="2" t="n">
         <v>0</v>
@@ -4634,16 +4634,16 @@
         <v>1</v>
       </c>
       <c r="AA32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
@@ -4661,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="3" t="inlineStr">
         <is>
@@ -4698,25 +4698,25 @@
         <v>0</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>1</v>
@@ -4728,16 +4728,16 @@
         <v>0</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
@@ -4749,16 +4749,16 @@
         <v>0</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="2" t="n">
         <v>0</v>
@@ -4767,16 +4767,16 @@
         <v>1</v>
       </c>
       <c r="AA33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="2" t="n">
         <v>0</v>
@@ -4788,19 +4788,19 @@
         <v>0</v>
       </c>
       <c r="AH33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ33" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="3" t="inlineStr">
         <is>
@@ -4825,25 +4825,25 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -4855,16 +4855,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -4876,16 +4876,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -4894,22 +4894,22 @@
         <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -4921,13 +4921,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK34" t="n">
         <v>1</v>
       </c>
       <c r="AL34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="3" t="inlineStr">
         <is>
@@ -4958,25 +4958,25 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>1</v>
@@ -4988,16 +4988,16 @@
         <v>0</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
@@ -5009,16 +5009,16 @@
         <v>0</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="2" t="n">
         <v>0</v>
@@ -5027,16 +5027,16 @@
         <v>1</v>
       </c>
       <c r="AA35" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="2" t="n">
         <v>0</v>
@@ -5048,19 +5048,19 @@
         <v>0</v>
       </c>
       <c r="AH35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ35" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="3" t="inlineStr">
         <is>
@@ -5085,25 +5085,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -5115,16 +5115,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5136,16 +5136,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -5154,19 +5154,19 @@
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" t="n">
         <v>0</v>
@@ -5181,13 +5181,13 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK36" t="n">
         <v>1</v>
       </c>
       <c r="AL36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="3" t="inlineStr">
         <is>
@@ -5218,25 +5218,25 @@
         <v>0</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>1</v>
@@ -5248,16 +5248,16 @@
         <v>0</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
@@ -5269,16 +5269,16 @@
         <v>0</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="2" t="n">
         <v>0</v>
@@ -5287,16 +5287,16 @@
         <v>1</v>
       </c>
       <c r="AA37" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="2" t="n">
         <v>0</v>
@@ -5308,19 +5308,19 @@
         <v>0</v>
       </c>
       <c r="AH37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ37" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK37" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="3" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -5354,16 +5354,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -5372,19 +5372,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5396,16 +5396,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -5414,16 +5414,16 @@
         <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE38" t="n">
         <v>0</v>
@@ -5435,19 +5435,19 @@
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK38" t="n">
         <v>2</v>
       </c>
       <c r="AL38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="3" t="inlineStr">
         <is>
@@ -5478,25 +5478,25 @@
         <v>0</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>1</v>
@@ -5508,16 +5508,16 @@
         <v>0</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
@@ -5529,16 +5529,16 @@
         <v>0</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="2" t="n">
         <v>0</v>
@@ -5547,16 +5547,16 @@
         <v>1</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="2" t="n">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39" s="2" t="n">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="AL39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="3" t="inlineStr">
         <is>
@@ -5605,31 +5605,31 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -5638,13 +5638,13 @@
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5656,16 +5656,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -5674,19 +5674,19 @@
         <v>1</v>
       </c>
       <c r="AA40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" t="n">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>2</v>
       </c>
       <c r="AL40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="3" t="inlineStr">
         <is>
@@ -5738,25 +5738,25 @@
         <v>0</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>1</v>
@@ -5771,13 +5771,13 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
@@ -5789,16 +5789,16 @@
         <v>0</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="2" t="n">
         <v>0</v>
@@ -5807,16 +5807,16 @@
         <v>1</v>
       </c>
       <c r="AA41" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="2" t="n">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="AH41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41" s="2" t="n">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="AL41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="3" t="inlineStr">
         <is>
@@ -5862,34 +5862,34 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -5898,13 +5898,13 @@
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -5916,16 +5916,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -5934,16 +5934,16 @@
         <v>1</v>
       </c>
       <c r="AA42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE42" t="n">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="AL42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="3" t="inlineStr">
         <is>
@@ -5998,25 +5998,25 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1</v>
@@ -6028,16 +6028,16 @@
         <v>0</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
@@ -6049,16 +6049,16 @@
         <v>0</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2" t="n">
         <v>0</v>
@@ -6067,16 +6067,16 @@
         <v>1</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="2" t="n">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="AH43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="2" t="n">
         <v>0</v>
@@ -6100,7 +6100,7 @@
         <v>2</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="3" t="inlineStr">
         <is>
@@ -6125,46 +6125,46 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6176,16 +6176,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -6194,19 +6194,19 @@
         <v>1</v>
       </c>
       <c r="AA44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
         <v>0</v>
@@ -6215,10 +6215,10 @@
         <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" t="n">
         <v>2</v>
@@ -6227,7 +6227,7 @@
         <v>2</v>
       </c>
       <c r="AL44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="3" t="inlineStr">
         <is>
@@ -6258,25 +6258,25 @@
         <v>0</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>1</v>
@@ -6291,13 +6291,13 @@
         <v>2</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
@@ -6309,16 +6309,16 @@
         <v>0</v>
       </c>
       <c r="U45" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="2" t="n">
         <v>0</v>
@@ -6330,13 +6330,13 @@
         <v>2</v>
       </c>
       <c r="AB45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="2" t="n">
         <v>0</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="AH45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="2" t="n">
         <v>0</v>
@@ -6360,7 +6360,7 @@
         <v>2</v>
       </c>
       <c r="AL45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="3" t="inlineStr">
         <is>
@@ -6385,109 +6385,109 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK46" t="n">
         <v>3</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1</v>
-      </c>
-      <c r="X46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>2</v>
-      </c>
       <c r="AL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="3" t="inlineStr">
         <is>
@@ -6518,25 +6518,25 @@
         <v>0</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>1</v>
@@ -6548,16 +6548,16 @@
         <v>0</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2" t="n">
         <v>0</v>
@@ -6569,16 +6569,16 @@
         <v>0</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="2" t="n">
         <v>0</v>
@@ -6590,13 +6590,13 @@
         <v>2</v>
       </c>
       <c r="AB47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="2" t="n">
         <v>0</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="AH47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47" s="2" t="n">
         <v>0</v>
@@ -6620,7 +6620,7 @@
         <v>2</v>
       </c>
       <c r="AL47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="3" t="inlineStr">
         <is>
@@ -6645,25 +6645,25 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -6675,16 +6675,16 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -6696,16 +6696,16 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
         <v>2</v>
       </c>
       <c r="X48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
@@ -6717,13 +6717,13 @@
         <v>2</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI48" t="n">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>2</v>
       </c>
       <c r="AL48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="3" t="inlineStr">
         <is>
@@ -6778,25 +6778,25 @@
         <v>0</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>1</v>
@@ -6811,13 +6811,13 @@
         <v>3</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2" t="n">
         <v>0</v>
@@ -6829,34 +6829,34 @@
         <v>0</v>
       </c>
       <c r="U49" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="2" t="n">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="AH49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" s="2" t="n">
         <v>0</v>
@@ -6880,7 +6880,7 @@
         <v>2</v>
       </c>
       <c r="AL49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="3" t="inlineStr">
         <is>
@@ -6905,25 +6905,25 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -6938,13 +6938,13 @@
         <v>3</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -6956,34 +6956,34 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" t="n">
         <v>3</v>
       </c>
-      <c r="Y50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>2</v>
-      </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
         <v>1</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50" t="n">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>2</v>
       </c>
       <c r="AL50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="3" t="inlineStr">
         <is>
@@ -7038,25 +7038,25 @@
         <v>0</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>1</v>
@@ -7068,55 +7068,55 @@
         <v>0</v>
       </c>
       <c r="N51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X51" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="2" t="n">
         <v>0</v>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="AH51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" s="2" t="n">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>2</v>
       </c>
       <c r="AL51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="3" t="inlineStr">
         <is>
@@ -7165,25 +7165,25 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -7195,67 +7195,67 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" t="n">
         <v>3</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>2</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1</v>
-      </c>
-      <c r="X52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>2</v>
-      </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG52" t="n">
         <v>0</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI52" t="n">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>2</v>
       </c>
       <c r="AL52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="3" t="inlineStr">
         <is>
@@ -7298,25 +7298,25 @@
         <v>0</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="n">
         <v>1</v>
@@ -7331,13 +7331,13 @@
         <v>4</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>0</v>
@@ -7349,34 +7349,34 @@
         <v>0</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="2" t="n">
         <v>0</v>
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="AH53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53" s="2" t="n">
         <v>0</v>
@@ -7400,7 +7400,7 @@
         <v>2</v>
       </c>
       <c r="AL53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="3" t="inlineStr">
         <is>
@@ -7425,25 +7425,25 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -7458,13 +7458,13 @@
         <v>4</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7476,37 +7476,37 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
         <v>2</v>
       </c>
       <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA54" t="n">
         <v>4</v>
       </c>
-      <c r="Y54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>2</v>
-      </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF54" t="n">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI54" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>2</v>
       </c>
       <c r="AL54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="3" t="inlineStr">
         <is>
@@ -7558,25 +7558,25 @@
         <v>0</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="n">
         <v>1</v>
@@ -7588,55 +7588,55 @@
         <v>0</v>
       </c>
       <c r="N55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X55" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="2" t="n">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="2" t="n">
         <v>0</v>
@@ -7660,7 +7660,7 @@
         <v>2</v>
       </c>
       <c r="AL55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="3" t="inlineStr">
         <is>
@@ -7685,88 +7685,88 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1</v>
+      </c>
+      <c r="W56" t="n">
+        <v>2</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA56" t="n">
         <v>4</v>
       </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1</v>
-      </c>
-      <c r="W56" t="n">
-        <v>2</v>
-      </c>
-      <c r="X56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>2</v>
-      </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56" t="n">
         <v>0</v>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="AH56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI56" t="n">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="AL56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="3" t="inlineStr">
         <is>
@@ -7818,25 +7818,25 @@
         <v>0</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="n">
         <v>1</v>
@@ -7848,55 +7848,55 @@
         <v>0</v>
       </c>
       <c r="N57" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X57" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="2" t="n">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="AH57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="2" t="n">
         <v>2</v>
@@ -7920,7 +7920,7 @@
         <v>2</v>
       </c>
       <c r="AL57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="3" t="inlineStr">
         <is>
@@ -7942,28 +7942,28 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
@@ -7975,70 +7975,70 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
+        <v>5</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>2</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" t="n">
         <v>4</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1</v>
-      </c>
-      <c r="W58" t="n">
-        <v>1</v>
-      </c>
-      <c r="X58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>2</v>
-      </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG58" t="n">
         <v>0</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ58" t="n">
         <v>2</v>
@@ -8047,7 +8047,7 @@
         <v>2</v>
       </c>
       <c r="AL58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="3" t="inlineStr">
         <is>
@@ -8078,25 +8078,25 @@
         <v>0</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="n">
         <v>1</v>
@@ -8108,55 +8108,55 @@
         <v>0</v>
       </c>
       <c r="N59" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X59" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="2" t="n">
         <v>0</v>
@@ -8168,10 +8168,10 @@
         <v>1</v>
       </c>
       <c r="AH59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="2" t="n">
         <v>2</v>
@@ -8180,7 +8180,7 @@
         <v>2</v>
       </c>
       <c r="AL59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="3" t="inlineStr">
         <is>
@@ -8202,28 +8202,28 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -8235,70 +8235,70 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>2</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA60" t="n">
         <v>4</v>
       </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" t="n">
-        <v>1</v>
-      </c>
-      <c r="W60" t="n">
-        <v>1</v>
-      </c>
-      <c r="X60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>2</v>
-      </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG60" t="n">
         <v>1</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60" t="n">
         <v>2</v>
@@ -8307,7 +8307,7 @@
         <v>2</v>
       </c>
       <c r="AL60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="3" t="inlineStr">
         <is>
@@ -8338,25 +8338,25 @@
         <v>0</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="n">
         <v>1</v>
@@ -8371,13 +8371,13 @@
         <v>5</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="2" t="n">
         <v>0</v>
@@ -8386,37 +8386,37 @@
         <v>0</v>
       </c>
       <c r="T61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="2" t="n">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>1</v>
       </c>
       <c r="AH61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ61" s="2" t="n">
         <v>2</v>
@@ -8440,7 +8440,7 @@
         <v>2</v>
       </c>
       <c r="AL61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="3" t="inlineStr">
         <is>
@@ -8465,25 +8465,25 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -8498,55 +8498,55 @@
         <v>5</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA62" t="n">
         <v>5</v>
       </c>
-      <c r="Y62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>2</v>
-      </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF62" t="n">
         <v>0</v>
@@ -8558,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="AI62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" t="n">
         <v>2</v>
@@ -8567,7 +8567,7 @@
         <v>2</v>
       </c>
       <c r="AL62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="3" t="inlineStr">
         <is>
@@ -8598,25 +8598,25 @@
         <v>0</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2" t="n">
         <v>1</v>
@@ -8631,13 +8631,13 @@
         <v>5</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="2" t="n">
         <v>0</v>
@@ -8646,37 +8646,37 @@
         <v>0</v>
       </c>
       <c r="T63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="2" t="n">
         <v>0</v>
@@ -8688,10 +8688,10 @@
         <v>1</v>
       </c>
       <c r="AH63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="2" t="n">
         <v>2</v>
@@ -8725,25 +8725,25 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -8758,13 +8758,13 @@
         <v>5</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -8773,37 +8773,37 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" t="n">
         <v>5</v>
       </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>2</v>
-      </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE64" t="n">
         <v>1</v>
@@ -8815,10 +8815,10 @@
         <v>1</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ64" t="n">
         <v>2</v>
@@ -8858,25 +8858,25 @@
         <v>0</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2" t="n">
         <v>1</v>
@@ -8891,13 +8891,13 @@
         <v>5</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="2" t="n">
         <v>0</v>
@@ -8906,37 +8906,37 @@
         <v>0</v>
       </c>
       <c r="T65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA65" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="2" t="n">
         <v>0</v>
@@ -8948,10 +8948,10 @@
         <v>1</v>
       </c>
       <c r="AH65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="2" t="n">
         <v>2</v>
@@ -8985,25 +8985,25 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -9018,13 +9018,13 @@
         <v>5</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9033,43 +9033,43 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA66" t="n">
         <v>5</v>
       </c>
-      <c r="Y66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>2</v>
-      </c>
       <c r="AB66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE66" t="n">
         <v>0</v>
       </c>
       <c r="AF66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG66" t="n">
         <v>1</v>
@@ -9078,7 +9078,7 @@
         <v>1</v>
       </c>
       <c r="AI66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ66" t="n">
         <v>2</v>
@@ -9118,25 +9118,25 @@
         <v>0</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K67" s="2" t="n">
         <v>1</v>
@@ -9151,13 +9151,13 @@
         <v>5</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="2" t="n">
         <v>0</v>
@@ -9166,37 +9166,37 @@
         <v>0</v>
       </c>
       <c r="T67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" s="2" t="n">
         <v>2</v>
       </c>
       <c r="X67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA67" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="2" t="n">
         <v>0</v>
@@ -9208,10 +9208,10 @@
         <v>1</v>
       </c>
       <c r="AH67" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ67" s="2" t="n">
         <v>2</v>
@@ -9245,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -9272,19 +9272,19 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>5</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9293,52 +9293,52 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68" t="n">
         <v>2</v>
       </c>
       <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA68" t="n">
         <v>5</v>
       </c>
-      <c r="Y68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>2</v>
-      </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG68" t="n">
         <v>1</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ68" t="n">
         <v>2</v>
@@ -9378,25 +9378,25 @@
         <v>0</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K69" s="2" t="n">
         <v>1</v>
@@ -9411,13 +9411,13 @@
         <v>5</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="2" t="n">
         <v>0</v>
@@ -9426,37 +9426,37 @@
         <v>0</v>
       </c>
       <c r="T69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA69" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE69" s="2" t="n">
         <v>0</v>
@@ -9468,10 +9468,10 @@
         <v>1</v>
       </c>
       <c r="AH69" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ69" s="2" t="n">
         <v>2</v>
@@ -9505,25 +9505,25 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -9532,19 +9532,19 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>5</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9553,55 +9553,55 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA70" t="n">
         <v>5</v>
       </c>
-      <c r="Y70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA70" t="n">
+      <c r="AB70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ70" t="n">
         <v>3</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>2</v>
       </c>
       <c r="AK70" t="n">
         <v>2</v>
@@ -9638,25 +9638,25 @@
         <v>0</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K71" s="2" t="n">
         <v>1</v>
@@ -9671,13 +9671,13 @@
         <v>5</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="2" t="n">
         <v>0</v>
@@ -9686,37 +9686,37 @@
         <v>0</v>
       </c>
       <c r="T71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W71" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA71" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD71" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE71" s="2" t="n">
         <v>0</v>
@@ -9728,10 +9728,10 @@
         <v>1</v>
       </c>
       <c r="AH71" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ71" s="2" t="n">
         <v>2</v>
@@ -9765,25 +9765,25 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -9798,13 +9798,13 @@
         <v>5</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -9813,37 +9813,37 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA72" t="n">
         <v>5</v>
       </c>
-      <c r="Y72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>3</v>
-      </c>
       <c r="AB72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE72" t="n">
         <v>0</v>
@@ -9855,10 +9855,10 @@
         <v>1</v>
       </c>
       <c r="AH72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ72" t="n">
         <v>2</v>
@@ -9898,25 +9898,25 @@
         <v>0</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K73" s="2" t="n">
         <v>1</v>
@@ -9925,19 +9925,19 @@
         <v>0</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="2" t="n">
         <v>5</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="2" t="n">
         <v>0</v>
@@ -9946,37 +9946,37 @@
         <v>0</v>
       </c>
       <c r="T73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W73" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X73" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA73" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE73" s="2" t="n">
         <v>0</v>
@@ -9988,10 +9988,10 @@
         <v>1</v>
       </c>
       <c r="AH73" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ73" s="2" t="n">
         <v>2</v>
@@ -10025,25 +10025,25 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -10052,19 +10052,19 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
         <v>5</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -10073,37 +10073,37 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA74" t="n">
         <v>5</v>
       </c>
-      <c r="Y74" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>3</v>
-      </c>
       <c r="AB74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE74" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>1</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ74" t="n">
         <v>2</v>
@@ -10158,25 +10158,25 @@
         <v>0</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K75" s="2" t="n">
         <v>1</v>
@@ -10185,19 +10185,19 @@
         <v>0</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" s="2" t="n">
         <v>5</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="2" t="n">
         <v>0</v>
@@ -10206,37 +10206,37 @@
         <v>0</v>
       </c>
       <c r="T75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA75" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD75" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE75" s="2" t="n">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>1</v>
       </c>
       <c r="AH75" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ75" s="2" t="n">
         <v>2</v>
@@ -10285,25 +10285,25 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -10312,19 +10312,19 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
         <v>5</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10333,55 +10333,55 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA76" t="n">
         <v>5</v>
       </c>
-      <c r="Y76" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA76" t="n">
+      <c r="AB76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ76" t="n">
         <v>3</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>2</v>
       </c>
       <c r="AK76" t="n">
         <v>3</v>
@@ -10418,25 +10418,25 @@
         <v>0</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K77" s="2" t="n">
         <v>1</v>
@@ -10445,19 +10445,19 @@
         <v>1</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" s="2" t="n">
         <v>5</v>
       </c>
       <c r="O77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="2" t="n">
         <v>0</v>
@@ -10466,37 +10466,37 @@
         <v>0</v>
       </c>
       <c r="T77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W77" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA77" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE77" s="2" t="n">
         <v>0</v>
@@ -10508,10 +10508,10 @@
         <v>1</v>
       </c>
       <c r="AH77" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ77" s="2" t="n">
         <v>2</v>
@@ -10545,25 +10545,25 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
@@ -10572,19 +10572,19 @@
         <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
         <v>5</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -10593,40 +10593,40 @@
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA78" t="n">
         <v>5</v>
       </c>
-      <c r="Y78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>3</v>
-      </c>
       <c r="AB78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF78" t="n">
         <v>0</v>
@@ -10635,10 +10635,10 @@
         <v>1</v>
       </c>
       <c r="AH78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ78" t="n">
         <v>2</v>
@@ -10678,25 +10678,25 @@
         <v>0</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K79" s="2" t="n">
         <v>1</v>
@@ -10705,58 +10705,58 @@
         <v>1</v>
       </c>
       <c r="M79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" s="2" t="n">
         <v>5</v>
       </c>
       <c r="O79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W79" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y79" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA79" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD79" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE79" s="2" t="n">
         <v>0</v>
@@ -10768,10 +10768,10 @@
         <v>1</v>
       </c>
       <c r="AH79" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ79" s="2" t="n">
         <v>2</v>
@@ -10802,103 +10802,103 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
         <v>5</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA80" t="n">
         <v>5</v>
       </c>
-      <c r="Y80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>3</v>
-      </c>
       <c r="AB80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG80" t="n">
         <v>1</v>
       </c>
       <c r="AH80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ80" t="n">
         <v>2</v>
@@ -10938,25 +10938,25 @@
         <v>0</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K81" s="2" t="n">
         <v>1</v>
@@ -10965,58 +10965,58 @@
         <v>1</v>
       </c>
       <c r="M81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" s="2" t="n">
         <v>5</v>
       </c>
       <c r="O81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U81" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y81" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA81" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC81" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD81" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE81" s="2" t="n">
         <v>0</v>
@@ -11028,10 +11028,10 @@
         <v>1</v>
       </c>
       <c r="AH81" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ81" s="2" t="n">
         <v>2</v>
@@ -11065,25 +11065,25 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -11092,58 +11092,58 @@
         <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
         <v>5</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA82" t="n">
         <v>5</v>
       </c>
-      <c r="Y82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>3</v>
-      </c>
       <c r="AB82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC82" t="n">
         <v>1</v>
       </c>
       <c r="AD82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE82" t="n">
         <v>1</v>
@@ -11155,10 +11155,10 @@
         <v>1</v>
       </c>
       <c r="AH82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ82" t="n">
         <v>2</v>
@@ -11198,25 +11198,25 @@
         <v>0</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K83" s="2" t="n">
         <v>1</v>
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="M83" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" s="2" t="n">
         <v>5</v>
@@ -11234,49 +11234,49 @@
         <v>1</v>
       </c>
       <c r="P83" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V83" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y83" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA83" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB83" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC83" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD83" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE83" s="2" t="n">
         <v>0</v>
@@ -11288,10 +11288,10 @@
         <v>1</v>
       </c>
       <c r="AH83" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI83" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ83" s="2" t="n">
         <v>2</v>
@@ -11325,25 +11325,25 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
@@ -11352,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
         <v>5</v>
@@ -11361,49 +11361,49 @@
         <v>1</v>
       </c>
       <c r="P84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA84" t="n">
         <v>5</v>
       </c>
-      <c r="Y84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>3</v>
-      </c>
       <c r="AB84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84" t="n">
         <v>1</v>
       </c>
       <c r="AD84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE84" t="n">
         <v>1</v>
@@ -11415,10 +11415,10 @@
         <v>1</v>
       </c>
       <c r="AH84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ84" t="n">
         <v>2</v>
@@ -11434,9 +11434,9 @@
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN84" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN84" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -11458,10 +11458,10 @@
         <v>0</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" s="2" t="n">
         <v>0</v>
@@ -11473,10 +11473,10 @@
         <v>1</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K85" s="2" t="n">
         <v>1</v>
@@ -11485,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="M85" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" s="2" t="n">
         <v>5</v>
@@ -11494,49 +11494,49 @@
         <v>1</v>
       </c>
       <c r="P85" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T85" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V85" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W85" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA85" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB85" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC85" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD85" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE85" s="2" t="n">
         <v>0</v>
@@ -11548,10 +11548,10 @@
         <v>1</v>
       </c>
       <c r="AH85" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI85" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ85" s="2" t="n">
         <v>2</v>
@@ -11585,10 +11585,10 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -11600,10 +11600,10 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
@@ -11621,52 +11621,52 @@
         <v>1</v>
       </c>
       <c r="P86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA86" t="n">
         <v>5</v>
       </c>
-      <c r="Y86" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>3</v>
-      </c>
       <c r="AB86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC86" t="n">
         <v>1</v>
       </c>
       <c r="AD86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF86" t="n">
         <v>0</v>
@@ -11675,10 +11675,10 @@
         <v>1</v>
       </c>
       <c r="AH86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ86" t="n">
         <v>2</v>
@@ -11694,9 +11694,9 @@
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN86" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN86" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -11718,10 +11718,10 @@
         <v>0</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" s="2" t="n">
         <v>0</v>
@@ -11733,10 +11733,10 @@
         <v>1</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K87" s="2" t="n">
         <v>1</v>
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="M87" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" s="2" t="n">
         <v>5</v>
@@ -11760,43 +11760,43 @@
         <v>1</v>
       </c>
       <c r="R87" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T87" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V87" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W87" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y87" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z87" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA87" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB87" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC87" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD87" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE87" s="2" t="n">
         <v>0</v>
@@ -11808,10 +11808,10 @@
         <v>1</v>
       </c>
       <c r="AH87" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI87" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ87" s="2" t="n">
         <v>2</v>
@@ -11845,13 +11845,13 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -11860,10 +11860,10 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -11887,46 +11887,46 @@
         <v>1</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA88" t="n">
         <v>5</v>
       </c>
-      <c r="Y88" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>3</v>
-      </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC88" t="n">
         <v>1</v>
       </c>
       <c r="AD88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF88" t="n">
         <v>0</v>
@@ -11935,10 +11935,10 @@
         <v>1</v>
       </c>
       <c r="AH88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ88" t="n">
         <v>2</v>
@@ -11954,9 +11954,9 @@
           <t>deviant</t>
         </is>
       </c>
-      <c r="AN88" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="AN88" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
